--- a/Transport_task/data.xlsx
+++ b/Transport_task/data.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\OneDrive\Desktop\bmstu\VKR\program\diploma\Transport_task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\OneDrive\Desktop\bmstu\VKR\new_program\Tr_task\Transport_task\Transport_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4076C81-27B8-4886-AE0D-C88223F33852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959D822-C7B4-496D-B294-3562DCC1AA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10808" yWindow="1530" windowWidth="12510" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -339,8 +344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -413,4 +418,1398 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF851F3-C2F7-43DD-9808-B94C6B442F25}">
+  <dimension ref="A2:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>140</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BE3A23-EC6F-4276-8948-9344AC80C5EC}">
+  <dimension ref="A2:AJ32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="B2" s="1">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1">
+        <v>130</v>
+      </c>
+      <c r="I2" s="1">
+        <v>178</v>
+      </c>
+      <c r="J2" s="1">
+        <v>150</v>
+      </c>
+      <c r="K2" s="1">
+        <v>130</v>
+      </c>
+      <c r="L2" s="1">
+        <v>150</v>
+      </c>
+      <c r="M2" s="1">
+        <v>140</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>130</v>
+      </c>
+      <c r="R2" s="1">
+        <v>178</v>
+      </c>
+      <c r="S2" s="1">
+        <v>150</v>
+      </c>
+      <c r="T2" s="1">
+        <v>130</v>
+      </c>
+      <c r="U2" s="1">
+        <v>150</v>
+      </c>
+      <c r="V2" s="1">
+        <v>140</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D14104-FF9C-4DD5-AEB8-54126F1DFE80}">
+  <dimension ref="A2:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <v>140</v>
+      </c>
+      <c r="F2">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>67</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="L2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04A415-6434-4A4B-96BA-9AC09E93D2C5}">
+  <dimension ref="A2:DB92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="B2" s="1">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1">
+        <v>130</v>
+      </c>
+      <c r="I2" s="1">
+        <v>178</v>
+      </c>
+      <c r="J2" s="1">
+        <v>150</v>
+      </c>
+      <c r="K2" s="1">
+        <v>130</v>
+      </c>
+      <c r="L2" s="1">
+        <v>150</v>
+      </c>
+      <c r="M2" s="1">
+        <v>140</v>
+      </c>
+      <c r="N2" s="1">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1">
+        <v>67</v>
+      </c>
+      <c r="P2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>130</v>
+      </c>
+      <c r="R2" s="1">
+        <v>178</v>
+      </c>
+      <c r="S2" s="1">
+        <v>150</v>
+      </c>
+      <c r="T2" s="1">
+        <v>130</v>
+      </c>
+      <c r="U2" s="1">
+        <v>150</v>
+      </c>
+      <c r="V2" s="1">
+        <v>140</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45</v>
+      </c>
+      <c r="X2" s="1">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>120</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>178</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>130</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>150</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>140</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>120</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>178</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>140</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>45</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>120</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>178</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>130</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>150</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>140</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>45</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>67</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>120</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>178</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>140</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>45</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>67</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>120</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>178</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>140</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>45</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>67</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>120</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>178</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>130</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>150</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>140</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>45</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>67</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>120</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>130</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:106" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Transport_task/data.xlsx
+++ b/Transport_task/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serge\OneDrive\Desktop\bmstu\VKR\new_program\Tr_task\Transport_task\Transport_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1959D822-C7B4-496D-B294-3562DCC1AA79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D69071B-A768-4E19-855D-B65627559A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Лист3" sheetId="4" r:id="rId3"/>
     <sheet name="Лист4" sheetId="5" r:id="rId4"/>
     <sheet name="Лист5" sheetId="6" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="7" r:id="rId6"/>
+    <sheet name="Лист7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,6 +28,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,7 +351,7 @@
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -575,7 +581,7 @@
   <dimension ref="A2:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -846,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D14104-FF9C-4DD5-AEB8-54126F1DFE80}">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -1036,777 +1042,990 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04A415-6434-4A4B-96BA-9AC09E93D2C5}">
   <dimension ref="A2:DB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView topLeftCell="CJ1" workbookViewId="0">
+      <selection activeCell="CZ14" sqref="CZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:106" x14ac:dyDescent="0.45">
-      <c r="B2" s="1">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1">
-        <v>140</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45</v>
-      </c>
-      <c r="F2" s="1">
-        <v>67</v>
-      </c>
-      <c r="G2" s="1">
-        <v>120</v>
-      </c>
-      <c r="H2" s="1">
-        <v>130</v>
-      </c>
-      <c r="I2" s="1">
-        <v>178</v>
-      </c>
-      <c r="J2" s="1">
-        <v>150</v>
-      </c>
-      <c r="K2" s="1">
-        <v>130</v>
-      </c>
-      <c r="L2" s="1">
-        <v>150</v>
-      </c>
-      <c r="M2" s="1">
-        <v>140</v>
-      </c>
-      <c r="N2" s="1">
-        <v>45</v>
-      </c>
-      <c r="O2" s="1">
-        <v>67</v>
-      </c>
-      <c r="P2" s="1">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>130</v>
-      </c>
-      <c r="R2" s="1">
-        <v>178</v>
-      </c>
-      <c r="S2" s="1">
-        <v>150</v>
-      </c>
-      <c r="T2" s="1">
-        <v>130</v>
-      </c>
-      <c r="U2" s="1">
-        <v>150</v>
-      </c>
-      <c r="V2" s="1">
-        <v>140</v>
-      </c>
-      <c r="W2" s="1">
-        <v>45</v>
-      </c>
-      <c r="X2" s="1">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>120</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>178</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>140</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>120</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>178</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>140</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>67</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>120</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>178</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>130</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>150</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>140</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>67</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>120</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BA2" s="1">
-        <v>178</v>
-      </c>
-      <c r="BB2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BE2" s="1">
-        <v>140</v>
-      </c>
-      <c r="BF2" s="1">
-        <v>45</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>67</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>120</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BJ2" s="1">
-        <v>178</v>
-      </c>
-      <c r="BK2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BL2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BM2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BN2" s="1">
-        <v>140</v>
-      </c>
-      <c r="BO2" s="1">
-        <v>45</v>
-      </c>
-      <c r="BP2" s="1">
-        <v>67</v>
-      </c>
-      <c r="BQ2" s="1">
-        <v>120</v>
-      </c>
-      <c r="BR2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>178</v>
-      </c>
-      <c r="BT2" s="1">
-        <v>130</v>
-      </c>
-      <c r="BU2" s="1">
-        <v>150</v>
-      </c>
-      <c r="BV2" s="1">
-        <v>140</v>
-      </c>
-      <c r="BW2" s="1">
-        <v>45</v>
-      </c>
-      <c r="BX2" s="1">
-        <v>67</v>
-      </c>
-      <c r="BY2" s="1">
-        <v>120</v>
-      </c>
-      <c r="BZ2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CA2" s="1">
-        <v>178</v>
-      </c>
-      <c r="CB2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CC2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CD2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CE2" s="1">
-        <v>140</v>
-      </c>
-      <c r="CF2" s="1">
-        <v>45</v>
-      </c>
-      <c r="CG2" s="1">
-        <v>67</v>
-      </c>
-      <c r="CH2" s="1">
-        <v>120</v>
-      </c>
-      <c r="CI2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>178</v>
-      </c>
-      <c r="CK2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>140</v>
-      </c>
-      <c r="CO2" s="1">
-        <v>45</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>67</v>
-      </c>
-      <c r="CQ2" s="1">
-        <v>120</v>
-      </c>
-      <c r="CR2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CS2" s="1">
-        <v>178</v>
-      </c>
-      <c r="CT2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CU2" s="1">
-        <v>130</v>
-      </c>
-      <c r="CV2" s="1">
-        <v>150</v>
-      </c>
-      <c r="CW2" s="1">
-        <v>140</v>
-      </c>
-      <c r="CX2" s="1">
-        <v>45</v>
-      </c>
-      <c r="CY2" s="1">
-        <v>67</v>
-      </c>
-      <c r="CZ2" s="1">
-        <v>120</v>
-      </c>
-      <c r="DA2" s="1">
-        <v>130</v>
-      </c>
-      <c r="DB2" s="1">
-        <v>178</v>
+      <c r="B2">
+        <v>142</v>
+      </c>
+      <c r="C2">
+        <v>162</v>
+      </c>
+      <c r="D2">
+        <v>152</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>132</v>
+      </c>
+      <c r="H2">
+        <v>142</v>
+      </c>
+      <c r="I2">
+        <v>190</v>
+      </c>
+      <c r="J2">
+        <v>168</v>
+      </c>
+      <c r="K2">
+        <v>148</v>
+      </c>
+      <c r="L2">
+        <v>168</v>
+      </c>
+      <c r="M2">
+        <v>158</v>
+      </c>
+      <c r="N2">
+        <v>63</v>
+      </c>
+      <c r="O2">
+        <v>85</v>
+      </c>
+      <c r="P2">
+        <v>138</v>
+      </c>
+      <c r="Q2">
+        <v>148</v>
+      </c>
+      <c r="R2">
+        <v>196</v>
+      </c>
+      <c r="S2">
+        <v>168</v>
+      </c>
+      <c r="T2">
+        <v>148</v>
+      </c>
+      <c r="U2">
+        <v>168</v>
+      </c>
+      <c r="V2">
+        <v>158</v>
+      </c>
+      <c r="W2">
+        <v>63</v>
+      </c>
+      <c r="X2">
+        <v>85</v>
+      </c>
+      <c r="Y2">
+        <v>138</v>
+      </c>
+      <c r="Z2">
+        <v>148</v>
+      </c>
+      <c r="AA2">
+        <v>196</v>
+      </c>
+      <c r="AB2">
+        <v>168</v>
+      </c>
+      <c r="AC2">
+        <v>148</v>
+      </c>
+      <c r="AD2">
+        <v>168</v>
+      </c>
+      <c r="AE2">
+        <v>158</v>
+      </c>
+      <c r="AF2">
+        <v>63</v>
+      </c>
+      <c r="AG2">
+        <v>85</v>
+      </c>
+      <c r="AH2">
+        <v>138</v>
+      </c>
+      <c r="AI2">
+        <v>148</v>
+      </c>
+      <c r="AJ2">
+        <v>196</v>
+      </c>
+      <c r="AK2">
+        <v>148</v>
+      </c>
+      <c r="AL2">
+        <v>168</v>
+      </c>
+      <c r="AM2">
+        <v>158</v>
+      </c>
+      <c r="AN2">
+        <v>63</v>
+      </c>
+      <c r="AO2">
+        <v>85</v>
+      </c>
+      <c r="AP2">
+        <v>138</v>
+      </c>
+      <c r="AQ2">
+        <v>148</v>
+      </c>
+      <c r="AR2">
+        <v>196</v>
+      </c>
+      <c r="AS2">
+        <v>168</v>
+      </c>
+      <c r="AT2">
+        <v>148</v>
+      </c>
+      <c r="AU2">
+        <v>162</v>
+      </c>
+      <c r="AV2">
+        <v>152</v>
+      </c>
+      <c r="AW2">
+        <v>57</v>
+      </c>
+      <c r="AX2">
+        <v>79</v>
+      </c>
+      <c r="AY2">
+        <v>132</v>
+      </c>
+      <c r="AZ2">
+        <v>142</v>
+      </c>
+      <c r="BA2">
+        <v>190</v>
+      </c>
+      <c r="BB2">
+        <v>162</v>
+      </c>
+      <c r="BC2">
+        <v>142</v>
+      </c>
+      <c r="BD2">
+        <v>162</v>
+      </c>
+      <c r="BE2">
+        <v>152</v>
+      </c>
+      <c r="BF2">
+        <v>57</v>
+      </c>
+      <c r="BG2">
+        <v>79</v>
+      </c>
+      <c r="BH2">
+        <v>132</v>
+      </c>
+      <c r="BI2">
+        <v>142</v>
+      </c>
+      <c r="BJ2">
+        <v>190</v>
+      </c>
+      <c r="BK2">
+        <v>162</v>
+      </c>
+      <c r="BL2">
+        <v>142</v>
+      </c>
+      <c r="BM2">
+        <v>162</v>
+      </c>
+      <c r="BN2">
+        <v>152</v>
+      </c>
+      <c r="BO2">
+        <v>57</v>
+      </c>
+      <c r="BP2">
+        <v>79</v>
+      </c>
+      <c r="BQ2">
+        <v>132</v>
+      </c>
+      <c r="BR2">
+        <v>136</v>
+      </c>
+      <c r="BS2">
+        <v>184</v>
+      </c>
+      <c r="BT2">
+        <v>136</v>
+      </c>
+      <c r="BU2">
+        <v>156</v>
+      </c>
+      <c r="BV2">
+        <v>146</v>
+      </c>
+      <c r="BW2">
+        <v>51</v>
+      </c>
+      <c r="BX2">
+        <v>73</v>
+      </c>
+      <c r="BY2">
+        <v>126</v>
+      </c>
+      <c r="BZ2">
+        <v>136</v>
+      </c>
+      <c r="CA2">
+        <v>184</v>
+      </c>
+      <c r="CB2">
+        <v>156</v>
+      </c>
+      <c r="CC2">
+        <v>136</v>
+      </c>
+      <c r="CD2">
+        <v>156</v>
+      </c>
+      <c r="CE2">
+        <v>146</v>
+      </c>
+      <c r="CF2">
+        <v>51</v>
+      </c>
+      <c r="CG2">
+        <v>73</v>
+      </c>
+      <c r="CH2">
+        <v>126</v>
+      </c>
+      <c r="CI2">
+        <v>136</v>
+      </c>
+      <c r="CJ2">
+        <v>184</v>
+      </c>
+      <c r="CK2">
+        <v>156</v>
+      </c>
+      <c r="CL2">
+        <v>136</v>
+      </c>
+      <c r="CM2">
+        <v>156</v>
+      </c>
+      <c r="CN2">
+        <v>146</v>
+      </c>
+      <c r="CO2">
+        <v>51</v>
+      </c>
+      <c r="CP2">
+        <v>73</v>
+      </c>
+      <c r="CQ2">
+        <v>126</v>
+      </c>
+      <c r="CR2">
+        <v>136</v>
+      </c>
+      <c r="CS2">
+        <v>184</v>
+      </c>
+      <c r="CT2">
+        <v>156</v>
+      </c>
+      <c r="CU2">
+        <v>136</v>
+      </c>
+      <c r="CV2">
+        <v>156</v>
+      </c>
+      <c r="CW2">
+        <v>146</v>
+      </c>
+      <c r="CX2">
+        <v>51</v>
+      </c>
+      <c r="CY2">
+        <v>73</v>
+      </c>
+      <c r="CZ2">
+        <v>201</v>
+      </c>
+      <c r="DA2">
+        <v>211</v>
+      </c>
+      <c r="DB2">
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>64</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>90</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>72</v>
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CBDACD-5117-43D3-886B-E812977B7EBC}">
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>160</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>190</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7931507-3183-40D9-91D3-95D2683ECD69}">
+  <dimension ref="A2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
